--- a/PLS_DA_Full_Loadings.xlsx
+++ b/PLS_DA_Full_Loadings.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1375938679311026</v>
+        <v>-0.1356117488138941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11399142249986</v>
+        <v>0.1130294857274193</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1349439671052017</v>
+        <v>-0.1329625268568803</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1115621827915058</v>
+        <v>0.1104367994098137</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1496468887372836</v>
+        <v>-0.1477165049125406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09089072432837017</v>
+        <v>0.08922390939838788</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1977256691630092</v>
+        <v>0.1995218117495986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004755255492128264</v>
+        <v>0.004220879745353941</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1252848264795784</v>
+        <v>-0.1274523990905673</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07946676046543563</v>
+        <v>0.08251350026177205</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.687577729030904e-19</v>
+        <v>3.694146810376191e-19</v>
       </c>
       <c r="C7" t="n">
-        <v>8.523607190109307e-20</v>
+        <v>8.0060257428122e-20</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1326555881069298</v>
+        <v>0.1345483322115004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0362716363024489</v>
+        <v>0.03693181851118537</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1558223386407452</v>
+        <v>0.1564187007398326</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02096065849629207</v>
+        <v>0.02307125079135797</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02323601861653747</v>
+        <v>-0.02460937599928252</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0666357658917353</v>
+        <v>-0.06813988542572783</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06845613180074717</v>
+        <v>0.06750961668988656</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.07787649560212995</v>
+        <v>-0.07332305003176191</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1423666830675743</v>
+        <v>0.1455125925638738</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1086962819389105</v>
+        <v>0.1032392678733324</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.201474150948263</v>
+        <v>-0.2010275669749248</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1604566379809774</v>
+        <v>0.1621958211851754</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02323601861653747</v>
+        <v>0.02460937599928251</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06663576589173532</v>
+        <v>0.06813988542572783</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.06845613180074718</v>
+        <v>-0.06750961668988656</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07787649560212996</v>
+        <v>0.0733230500317619</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1423666830675743</v>
+        <v>-0.1455125925638739</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1086962819389105</v>
+        <v>-0.1032392678733324</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.201474150948263</v>
+        <v>0.2010275669749248</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1604566379809774</v>
+        <v>-0.1621958211851754</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.06547558038248891</v>
+        <v>-0.06385567368185177</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1486765582731994</v>
+        <v>0.1473110168782172</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01655990730661528</v>
+        <v>0.01643526386734011</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.005982981635745698</v>
+        <v>-0.005969192250274713</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02612351901122194</v>
+        <v>0.02556189905808636</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1736994723104839</v>
+        <v>0.1788013750116377</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1323640059879941</v>
+        <v>0.1336784230938615</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23784745810608</v>
+        <v>0.2358233220165162</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.06302328817358638</v>
+        <v>-0.06117989272620093</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1038809654814205</v>
+        <v>0.1017353866834559</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0548435557491889</v>
+        <v>-0.05639884126808283</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01620290206125191</v>
+        <v>0.01557231345000166</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1141538014384592</v>
+        <v>0.1168866731903523</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1121107649891674</v>
+        <v>0.106810669762484</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.02643432975251679</v>
+        <v>-0.02737292091020305</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1359848794624016</v>
+        <v>0.1387518439314413</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1196152792576373</v>
+        <v>0.1214912587999123</v>
       </c>
       <c r="C26" t="n">
-        <v>0.195640641752559</v>
+        <v>0.1961628227417695</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1034508841188774</v>
+        <v>0.1038930445698832</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1429524580649324</v>
+        <v>0.1444497754903806</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.08254201518764204</v>
+        <v>0.08452422810056646</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1670373061769154</v>
+        <v>0.1647567094850562</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.07854409565392151</v>
+        <v>0.07988486869050895</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1654141963988461</v>
+        <v>0.1656161558365252</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1708464089137672</v>
+        <v>0.1706400585845829</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1107876296897</v>
+        <v>0.1101768914378917</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1659607578963908</v>
+        <v>0.1669230469943295</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04993334765015231</v>
+        <v>0.0498640463058565</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.06601095387727765</v>
+        <v>-0.06540712192638921</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1647229295869173</v>
+        <v>0.1648303743084369</v>
       </c>
     </row>
     <row r="33">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.157789219556763</v>
+        <v>-0.1577248877264339</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01058325238130047</v>
+        <v>0.009894378603085887</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1571238001206796</v>
+        <v>-0.1564212982672172</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1039289725769808</v>
+        <v>-0.107541376615142</v>
       </c>
     </row>
     <row r="35">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.07821972061338128</v>
+        <v>-0.0768890913525265</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.07165227048615455</v>
+        <v>-0.07455445976665978</v>
       </c>
     </row>
     <row r="36">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.07399819299012343</v>
+        <v>-0.07308468497077832</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.04523313369745059</v>
+        <v>-0.04850424393630098</v>
       </c>
     </row>
     <row r="37">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.145731677275642</v>
+        <v>-0.1455781323262757</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1343453626789668</v>
+        <v>-0.1357926143671036</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.1736525244154125</v>
+        <v>-0.1744282470330547</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01337903478609674</v>
+        <v>-0.01016954408816981</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.1506468723818967</v>
+        <v>-0.150637707198618</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009003316825739988</v>
+        <v>0.009380309940615474</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.1222401915855647</v>
+        <v>-0.1215503642062252</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.05171983121561589</v>
+        <v>-0.0540875711528586</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.189006345094099</v>
+        <v>-0.1892975479774812</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.06707923677412606</v>
+        <v>-0.06768450484232368</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.1513584867697161</v>
+        <v>-0.1520367607775973</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1210966357914418</v>
+        <v>-0.1243293219521118</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.09189457145807695</v>
+        <v>-0.09258785833722553</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.04750803288683547</v>
+        <v>-0.04622919848169286</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.1616887877795207</v>
+        <v>-0.1630552363619876</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0790160727755438</v>
+        <v>-0.07815763048718441</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.05738961225557138</v>
+        <v>-0.0577887704764482</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1595823376034988</v>
+        <v>0.1615489371911604</v>
       </c>
     </row>
     <row r="46">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.04500665228473549</v>
+        <v>-0.04594690194926534</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1429723552859314</v>
+        <v>0.1457610558906688</v>
       </c>
     </row>
     <row r="47">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.02469749377374808</v>
+        <v>-0.02303732374752051</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1884936623979469</v>
+        <v>0.187934224762749</v>
       </c>
     </row>
     <row r="48">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.09932856458953281</v>
+        <v>0.09733089569450205</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.08649167987821095</v>
+        <v>-0.08340563091371249</v>
       </c>
     </row>
     <row r="49">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.03569579461069795</v>
+        <v>-0.03555520286594075</v>
       </c>
       <c r="C49" t="n">
-        <v>0.174731186481319</v>
+        <v>0.177296403810031</v>
       </c>
     </row>
     <row r="50">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.008232107542416231</v>
+        <v>-0.008481010421873681</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1644860814969715</v>
+        <v>0.1669763582547929</v>
       </c>
     </row>
     <row r="51">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.01646014115895051</v>
+        <v>-0.01699027191987075</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1638186146144719</v>
+        <v>0.1663423509019227</v>
       </c>
     </row>
     <row r="52">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1304110365561474</v>
+        <v>0.1310033865246277</v>
       </c>
       <c r="C52" t="n">
-        <v>0.005900082245995926</v>
+        <v>0.008990540342968444</v>
       </c>
     </row>
     <row r="53">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.01697161551971002</v>
+        <v>-0.01746767490228151</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1644191025105245</v>
+        <v>0.1670179785726642</v>
       </c>
     </row>
     <row r="54">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04662990945612442</v>
+        <v>0.04757263122692094</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2332232523196918</v>
+        <v>0.2347634212556296</v>
       </c>
     </row>
     <row r="55">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1396252025074541</v>
+        <v>0.1380499992652509</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1338390745474259</v>
+        <v>-0.1337372067154171</v>
       </c>
     </row>
     <row r="56">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.1396263067288908</v>
+        <v>-0.138051213926517</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1338447222766595</v>
+        <v>0.133743109982574</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.138502403746368</v>
+        <v>-0.1369206939361452</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1335926809064966</v>
+        <v>0.1334552440776545</v>
       </c>
     </row>
     <row r="58">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1394435654759249</v>
+        <v>0.1378690871146362</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.1338810729665539</v>
+        <v>-0.1337767845170491</v>
       </c>
     </row>
     <row r="59">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1387368414521261</v>
+        <v>0.1369280998826932</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.1231599322518248</v>
+        <v>-0.1226030063431843</v>
       </c>
     </row>
     <row r="60">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1396253999138694</v>
+        <v>0.1380502072466752</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.1338396160498288</v>
+        <v>-0.1337377622212268</v>
       </c>
     </row>
     <row r="61">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.13962649729873</v>
+        <v>-0.1380514157076208</v>
       </c>
       <c r="C61" t="n">
-        <v>0.133845363019491</v>
+        <v>0.1337437669988134</v>
       </c>
     </row>
     <row r="62">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.138504838097435</v>
+        <v>-0.136923193049409</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1335994104091521</v>
+        <v>0.133462218191843</v>
       </c>
     </row>
     <row r="63">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1394440411084142</v>
+        <v>0.1378695772239124</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.1338824311759475</v>
+        <v>-0.1337781894263775</v>
       </c>
     </row>
     <row r="64">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1387491070642726</v>
+        <v>0.1369411008132438</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.1231956322213923</v>
+        <v>-0.1226396438828195</v>
       </c>
     </row>
     <row r="65">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1386311896120959</v>
+        <v>0.1370900010528857</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1350045030679049</v>
+        <v>-0.1349308457641521</v>
       </c>
     </row>
     <row r="66">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.1361249832763001</v>
+        <v>-0.1346570030685807</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1374801796020549</v>
+        <v>0.137461123295189</v>
       </c>
     </row>
     <row r="67">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.1380851027343401</v>
+        <v>-0.1365179464735833</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1341521245808814</v>
+        <v>0.134027871598373</v>
       </c>
     </row>
     <row r="68">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1374073238454976</v>
+        <v>0.1358972382255379</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.1360793680526032</v>
+        <v>-0.136026035612199</v>
       </c>
     </row>
     <row r="69">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1388597309303828</v>
+        <v>0.1370240188222138</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.122058303478444</v>
+        <v>-0.1214582826485867</v>
       </c>
     </row>
     <row r="70">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1386975207328231</v>
+        <v>0.1371549033806295</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.1349579888081062</v>
+        <v>-0.1348835857752032</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.1367553204966135</v>
+        <v>-0.1352711922388169</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1369437080523728</v>
+        <v>0.1369140558127595</v>
       </c>
     </row>
     <row r="72">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.1381457942493146</v>
+        <v>-0.1365765170705984</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1340803807447937</v>
+        <v>0.1339543328174166</v>
       </c>
     </row>
     <row r="73">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1377407202664429</v>
+        <v>0.1362220291047487</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.1357937154810847</v>
+        <v>-0.1357346927309932</v>
       </c>
     </row>
     <row r="74">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1388321417647136</v>
+        <v>0.1369947355421925</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.1219841144556121</v>
+        <v>-0.1213807087338276</v>
       </c>
     </row>
     <row r="75">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.0006457039900787341</v>
+        <v>-0.0004778773344356076</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.00683831986674555</v>
+        <v>-0.007060561515041946</v>
       </c>
     </row>
   </sheetData>

--- a/PLS_DA_Full_Loadings.xlsx
+++ b/PLS_DA_Full_Loadings.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1356117488138941</v>
+        <v>-0.135611748813894</v>
       </c>
       <c r="C2" t="n">
         <v>0.1130294857274193</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1329625268568803</v>
+        <v>-0.1329625268568802</v>
       </c>
       <c r="C3" t="n">
         <v>0.1104367994098137</v>
@@ -499,7 +499,7 @@
         <v>0.1995218117495986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004220879745353941</v>
+        <v>0.004220879745353914</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>-0.1274523990905673</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08251350026177205</v>
+        <v>0.08251350026177208</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>3.694146810376191e-19</v>
       </c>
       <c r="C7" t="n">
-        <v>8.0060257428122e-20</v>
+        <v>8.006025742812197e-20</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1345483322115004</v>
+        <v>0.1345483322115003</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03693181851118537</v>
+        <v>0.03693181851118536</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>0.1564187007398326</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02307125079135797</v>
+        <v>0.02307125079135796</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>-0.02460937599928252</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.06813988542572783</v>
+        <v>-0.06813988542572781</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>0.06750961668988656</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.07332305003176191</v>
+        <v>-0.0733230500317619</v>
       </c>
     </row>
     <row r="12">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1455125925638738</v>
+        <v>0.1455125925638739</v>
       </c>
       <c r="C12" t="n">
         <v>0.1032392678733324</v>
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02460937599928251</v>
+        <v>0.02460937599928252</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06813988542572783</v>
+        <v>0.06813988542572781</v>
       </c>
     </row>
     <row r="15">
@@ -681,7 +681,7 @@
         <v>0.01643526386734011</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.005969192250274713</v>
+        <v>-0.005969192250274711</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>0.02556189905808636</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1788013750116377</v>
+        <v>0.1788013750116378</v>
       </c>
     </row>
     <row r="21">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.05639884126808283</v>
+        <v>-0.05639884126808282</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01557231345000166</v>
+        <v>0.01557231345000167</v>
       </c>
     </row>
     <row r="24">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.02737292091020305</v>
+        <v>-0.02737292091020304</v>
       </c>
       <c r="C25" t="n">
         <v>0.1387518439314413</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1706400585845829</v>
+        <v>0.1706400585845828</v>
       </c>
       <c r="C30" t="n">
         <v>0.1101768914378917</v>
@@ -837,7 +837,7 @@
         <v>0.1669230469943295</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0498640463058565</v>
+        <v>0.04986404630585649</v>
       </c>
     </row>
     <row r="32">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.06540712192638921</v>
+        <v>-0.0654071219263892</v>
       </c>
       <c r="C32" t="n">
         <v>0.1648303743084369</v>
@@ -863,7 +863,7 @@
         <v>-0.1577248877264339</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009894378603085887</v>
+        <v>0.009894378603085905</v>
       </c>
     </row>
     <row r="34">
@@ -889,7 +889,7 @@
         <v>-0.0768890913525265</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.07455445976665978</v>
+        <v>-0.07455445976665979</v>
       </c>
     </row>
     <row r="36">
@@ -928,7 +928,7 @@
         <v>-0.1744282470330547</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01016954408816981</v>
+        <v>-0.01016954408816979</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>-0.150637707198618</v>
       </c>
       <c r="C39" t="n">
-        <v>0.009380309940615474</v>
+        <v>0.00938030994061549</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>-0.1215503642062252</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0540875711528586</v>
+        <v>-0.05408757115285859</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>-0.1892975479774812</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.06768450484232368</v>
+        <v>-0.06768450484232366</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>-0.1520367607775973</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1243293219521118</v>
+        <v>-0.1243293219521117</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>-0.09258785833722553</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.04622919848169286</v>
+        <v>-0.04622919848169285</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>-0.1630552363619876</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.07815763048718441</v>
+        <v>-0.07815763048718438</v>
       </c>
     </row>
     <row r="45">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.04594690194926534</v>
+        <v>-0.04594690194926532</v>
       </c>
       <c r="C46" t="n">
         <v>0.1457610558906688</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.02303732374752051</v>
+        <v>-0.0230373237475205</v>
       </c>
       <c r="C47" t="n">
         <v>0.187934224762749</v>
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.09733089569450205</v>
+        <v>0.09733089569450203</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.08340563091371249</v>
+        <v>-0.08340563091371252</v>
       </c>
     </row>
     <row r="49">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.03555520286594075</v>
+        <v>-0.03555520286594074</v>
       </c>
       <c r="C49" t="n">
         <v>0.177296403810031</v>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.008481010421873681</v>
+        <v>-0.008481010421873674</v>
       </c>
       <c r="C50" t="n">
         <v>0.1669763582547929</v>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.01699027191987075</v>
+        <v>-0.01699027191987074</v>
       </c>
       <c r="C51" t="n">
         <v>0.1663423509019227</v>
@@ -1110,7 +1110,7 @@
         <v>0.1310033865246277</v>
       </c>
       <c r="C52" t="n">
-        <v>0.008990540342968444</v>
+        <v>0.008990540342968421</v>
       </c>
     </row>
     <row r="53">
@@ -1123,7 +1123,7 @@
         <v>-0.01746767490228151</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1670179785726642</v>
+        <v>0.1670179785726641</v>
       </c>
     </row>
     <row r="54">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1380499992652509</v>
+        <v>0.1380499992652508</v>
       </c>
       <c r="C55" t="n">
         <v>-0.1337372067154171</v>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1370900010528857</v>
+        <v>0.1370900010528856</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1349308457641521</v>
+        <v>-0.134930845764152</v>
       </c>
     </row>
     <row r="66">
@@ -1318,7 +1318,7 @@
         <v>0.1358972382255379</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.136026035612199</v>
+        <v>-0.1360260356121989</v>
       </c>
     </row>
     <row r="69">
@@ -1357,7 +1357,7 @@
         <v>-0.1352711922388169</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1369140558127595</v>
+        <v>0.1369140558127594</v>
       </c>
     </row>
     <row r="72">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.0004778773344356076</v>
+        <v>-0.0004778773344356071</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.007060561515041946</v>
+        <v>-0.007060561515041948</v>
       </c>
     </row>
   </sheetData>
